--- a/biology/Zoologie/Calao_des_Célèbes/Calao_des_Célèbes.xlsx
+++ b/biology/Zoologie/Calao_des_Célèbes/Calao_des_Célèbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_des_C%C3%A9l%C3%A8bes</t>
+          <t>Calao_des_Célèbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhabdotorrhinus exarhatus
 Le Calao des Célèbes (Rhabdotorrhinus exarhatus, anciennement Penelopides exarhatus) est une espèce d'oiseaux de la famille des Bucerotidae, endémique de l'Indonésie (Sulawesi).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_des_C%C3%A9l%C3%A8bes</t>
+          <t>Calao_des_Célèbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Penelopides.
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Penelopides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calao_des_Célèbes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calao_des_C%C3%A9l%C3%A8bes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Rhabdotorrhinus exarhatus exarhatus (Temminck, 1823) ;
 Rhabdotorrhinus exarhatus sanfordi Stresemann, 1932.</t>
         </is>
